--- a/nick_testdata/nick_testdata.xlsx
+++ b/nick_testdata/nick_testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abigailleggett/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickrigel/Documents/GitHub/pathway_searching/nick_testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5504B37-CBFA-3049-8B67-2138854B67AE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C12515-36DD-5D4F-A372-F4FAB8FF39A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="2280" windowWidth="27640" windowHeight="16000" xr2:uid="{C30A1A16-EECC-4A4B-8D51-FBFE62CAB0B3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="36">
   <si>
     <t>NT_CFvsWT</t>
   </si>
@@ -133,21 +133,6 @@
   </si>
   <si>
     <t>Fold Change 6/24</t>
-  </si>
-  <si>
-    <t>*0.0030</t>
-  </si>
-  <si>
-    <t>*0.0004</t>
-  </si>
-  <si>
-    <t>*0.0070</t>
-  </si>
-  <si>
-    <t>*0.0049</t>
-  </si>
-  <si>
-    <t>*0.0195</t>
   </si>
 </sst>
 </file>
@@ -542,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349E8240-406F-C14E-B014-B247BD692E2B}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,8 +695,8 @@
       <c r="U3" t="s">
         <v>9</v>
       </c>
-      <c r="V3" t="s">
-        <v>36</v>
+      <c r="V3">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="W3">
         <v>0.21</v>
@@ -719,8 +704,8 @@
       <c r="Y3" t="s">
         <v>20</v>
       </c>
-      <c r="Z3" t="s">
-        <v>37</v>
+      <c r="Z3">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="AA3">
         <v>1.38</v>
@@ -780,8 +765,8 @@
       <c r="U4" t="s">
         <v>20</v>
       </c>
-      <c r="V4" t="s">
-        <v>38</v>
+      <c r="V4">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="W4">
         <v>1.75</v>
@@ -789,8 +774,8 @@
       <c r="Y4" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" t="s">
-        <v>39</v>
+      <c r="Z4">
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="AA4">
         <v>12.96</v>
@@ -850,8 +835,8 @@
       <c r="U5" t="s">
         <v>25</v>
       </c>
-      <c r="V5" t="s">
-        <v>40</v>
+      <c r="V5">
+        <v>1.95E-2</v>
       </c>
       <c r="W5">
         <v>1.75</v>

--- a/nick_testdata/nick_testdata.xlsx
+++ b/nick_testdata/nick_testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickrigel/Documents/GitHub/pathway_searching/nick_testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C12515-36DD-5D4F-A372-F4FAB8FF39A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AF3434C-B20E-7144-AD0D-6EF742A124C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="2280" windowWidth="27640" windowHeight="16000" xr2:uid="{C30A1A16-EECC-4A4B-8D51-FBFE62CAB0B3}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
